--- a/ProjectJava/data/ListeAdmin.xlsx
+++ b/ProjectJava/data/ListeAdmin.xlsx
@@ -13,7 +13,7 @@
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Nom</t>
   </si>
@@ -33,12 +33,25 @@
   </si>
   <si>
     <t>Mot de passe</t>
+  </si>
+  <si>
+    <t>MENNOU</t>
+  </si>
+  <si>
+    <t>Abdellah</t>
+  </si>
+  <si>
+    <t>F56342</t>
+  </si>
+  <si>
+    <t>afen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,10 +371,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -378,7 +391,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjectJava/data/ListeAdmin.xlsx
+++ b/ProjectJava/data/ListeAdmin.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
   <si>
     <t>Nom</t>
   </si>
@@ -45,6 +45,51 @@
   </si>
   <si>
     <t>afen</t>
+  </si>
+  <si>
+    <t>MENOU</t>
+  </si>
+  <si>
+    <t>ABDELAH</t>
+  </si>
+  <si>
+    <t>RUJFZMD</t>
+  </si>
+  <si>
+    <t>TEST1</t>
+  </si>
+  <si>
+    <t>Abdelah</t>
+  </si>
+  <si>
+    <t>R549834</t>
+  </si>
+  <si>
+    <t>R45678</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>M345267</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -363,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -393,19 +438,46 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
